--- a/pivot-table-cell-referencing.xlsx
+++ b/pivot-table-cell-referencing.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E762F5A-100D-4843-8439-B481980059F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FEDDEC-7BCC-4A6C-9AEC-B5F89B2F6538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -99,6 +100,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,22 +188,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +223,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="164" formatCode=";;;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -314,6 +324,1549 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F23-4CB9-A441-EE5DEEAB8F2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>98085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109146</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106576</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>108911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>114215</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>118373</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120739</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122794</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127735</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>127246</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>127289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127169</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>131330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131054</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>135284</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>138903</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136368</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>135144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F23-4CB9-A441-EE5DEEAB8F2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>;;;</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46245</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44822</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43681</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47710</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47217</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49082</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49862</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51872</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61427</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62342</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62353</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60571</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9F23-4CB9-A441-EE5DEEAB8F2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="798611224"/>
+        <c:axId val="798612208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="798611224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798612208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="798612208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798611224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2798,6 +4351,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5262876C-077E-4ED3-B0C0-B7B89530BEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3636,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3701,13 +5297,13 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3721,7 +5317,7 @@
       <c r="C2" s="2">
         <v>98085</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="10">
         <v>42874</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -3733,7 +5329,7 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="O2">
@@ -3759,19 +5355,19 @@
       <c r="C3" s="2">
         <v>98698</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>44167</v>
       </c>
       <c r="H3" s="5">
         <v>2010</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>1256274</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>525288</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f>GETPIVOTDATA("Sum of Expenses",$H$2,"Year",2010)/GETPIVOTDATA("Sum of Income",$H$2,"Year",2010)</f>
         <v>0.41813171330458165</v>
       </c>
@@ -3798,19 +5394,19 @@
       <c r="C4" s="2">
         <v>102403</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>43349</v>
       </c>
       <c r="H4" s="5">
         <v>2011</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>1357068</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>533893</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f>GETPIVOTDATA("Sum of Expenses",$H$2,"Year",2011)/GETPIVOTDATA("Sum of Income",$H$2,"Year",2011)</f>
         <v>0.39341654213348187</v>
       </c>
@@ -3837,19 +5433,19 @@
       <c r="C5" s="2">
         <v>106044</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>43102</v>
       </c>
       <c r="H5" s="5">
         <v>2012</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>1583717</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5">
         <v>646181</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f>GETPIVOTDATA("Sum of Expenses",$H$2,"Year",2012)/GETPIVOTDATA("Sum of Income",$H$2,"Year",2012)</f>
         <v>0.40801544720426691</v>
       </c>
@@ -3876,19 +5472,19 @@
       <c r="C6" s="2">
         <v>105361</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <v>45005</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>4197059</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>1705362</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <f>GETPIVOTDATA("Sum of Expenses",$H$2)/GETPIVOTDATA("Sum of Income",$H$2)</f>
         <v>0.40632309433820207</v>
       </c>
@@ -3915,7 +5511,7 @@
       <c r="C7" s="2">
         <v>105729</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>44216</v>
       </c>
       <c r="O7" t="str">
@@ -3941,7 +5537,7 @@
       <c r="C8" s="2">
         <v>105557</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
         <v>43835</v>
       </c>
       <c r="O8" t="str">
@@ -3967,7 +5563,7 @@
       <c r="C9" s="2">
         <v>109669</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <v>41952</v>
       </c>
       <c r="O9" t="str">
@@ -3993,7 +5589,7 @@
       <c r="C10" s="2">
         <v>107233</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
         <v>44071</v>
       </c>
       <c r="O10" t="str">
@@ -4019,7 +5615,7 @@
       <c r="C11" s="2">
         <v>105048</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>43185</v>
       </c>
       <c r="O11" t="str">
@@ -4045,7 +5641,7 @@
       <c r="C12" s="2">
         <v>107446</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="10">
         <v>44403</v>
       </c>
       <c r="O12" t="str">
@@ -4071,7 +5667,7 @@
       <c r="C13" s="2">
         <v>105001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="10">
         <v>45129</v>
       </c>
       <c r="O13" t="str">
@@ -4097,7 +5693,7 @@
       <c r="C14" s="2">
         <v>109699</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="10">
         <v>46245</v>
       </c>
       <c r="O14" t="str">
@@ -4123,7 +5719,7 @@
       <c r="C15" s="2">
         <v>109146</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="10">
         <v>45672</v>
       </c>
       <c r="O15" t="str">
@@ -4149,7 +5745,7 @@
       <c r="C16" s="2">
         <v>106576</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="10">
         <v>44143</v>
       </c>
       <c r="O16" t="str">
@@ -4175,7 +5771,7 @@
       <c r="C17" s="2">
         <v>108911</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="10">
         <v>43835</v>
       </c>
       <c r="O17" t="str">
@@ -4201,7 +5797,7 @@
       <c r="C18" s="2">
         <v>108011</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="10">
         <v>44114</v>
       </c>
       <c r="O18" t="str">
@@ -4227,7 +5823,7 @@
       <c r="C19" s="2">
         <v>111361</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="10">
         <v>44648</v>
       </c>
       <c r="O19" t="str">
@@ -4253,7 +5849,7 @@
       <c r="C20" s="2">
         <v>114278</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="10">
         <v>44822</v>
       </c>
       <c r="O20" t="str">
@@ -4279,7 +5875,7 @@
       <c r="C21" s="2">
         <v>112965</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="10">
         <v>44053</v>
       </c>
       <c r="O21" t="str">
@@ -4305,7 +5901,7 @@
       <c r="C22" s="2">
         <v>114215</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="10">
         <v>43773</v>
       </c>
       <c r="O22" t="str">
@@ -4331,7 +5927,7 @@
       <c r="C23" s="2">
         <v>118373</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="10">
         <v>44469</v>
       </c>
       <c r="O23" t="str">
@@ -4357,7 +5953,7 @@
       <c r="C24" s="2">
         <v>120739</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="10">
         <v>44438</v>
       </c>
       <c r="O24" t="str">
@@ -4383,7 +5979,7 @@
       <c r="C25" s="2">
         <v>122794</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="10">
         <v>43681</v>
       </c>
       <c r="O25" t="str">
@@ -4409,7 +6005,7 @@
       <c r="C26" s="2">
         <v>127735</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="10">
         <v>45495</v>
       </c>
       <c r="O26" t="str">
@@ -4435,7 +6031,7 @@
       <c r="C27" s="2">
         <v>127246</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="10">
         <v>47710</v>
       </c>
       <c r="O27" t="str">
@@ -4461,7 +6057,7 @@
       <c r="C28" s="2">
         <v>127289</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="10">
         <v>48402</v>
       </c>
       <c r="O28" t="str">
@@ -4487,7 +6083,7 @@
       <c r="C29" s="2">
         <v>127169</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="10">
         <v>47217</v>
       </c>
       <c r="O29" t="str">
@@ -4513,7 +6109,7 @@
       <c r="C30" s="2">
         <v>131330</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="10">
         <v>49082</v>
       </c>
       <c r="O30" t="str">
@@ -4539,7 +6135,7 @@
       <c r="C31" s="2">
         <v>130996</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="10">
         <v>49862</v>
       </c>
       <c r="O31" t="str">
@@ -4565,7 +6161,7 @@
       <c r="C32" s="2">
         <v>131054</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="10">
         <v>51872</v>
       </c>
       <c r="O32" t="str">
@@ -4591,7 +6187,7 @@
       <c r="C33" s="2">
         <v>135284</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="10">
         <v>61427</v>
       </c>
       <c r="O33" t="str">
@@ -4617,7 +6213,7 @@
       <c r="C34" s="2">
         <v>138903</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="10">
         <v>62342</v>
       </c>
       <c r="O34" t="str">
@@ -4643,7 +6239,7 @@
       <c r="C35" s="2">
         <v>136368</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="10">
         <v>62353</v>
       </c>
       <c r="O35" t="str">
@@ -4669,7 +6265,7 @@
       <c r="C36" s="2">
         <v>135199</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="10">
         <v>60571</v>
       </c>
       <c r="O36" t="str">
@@ -4695,7 +6291,7 @@
       <c r="C37" s="2">
         <v>135144</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="10">
         <v>59848</v>
       </c>
       <c r="O37" t="str">
@@ -4733,4 +6329,19 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37DD42B-DBD5-4024-85CA-0F78CFD881AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>